--- a/output/Notice_of_Garnish2_results.xlsx
+++ b/output/Notice_of_Garnish2_results.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.83914965</v>
+        <v>0.8391499</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.47776788</v>
+        <v>0.47776735</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.47548726</v>
+        <v>0.4754855</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.33335188</v>
+        <v>0.33335164</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.874885</v>
+        <v>0.8748849</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8435398</v>
+        <v>0.8435397</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8194366</v>
+        <v>0.81943655</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7342183</v>
+        <v>0.73421824</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7162764</v>
+        <v>0.71627635</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.54270285</v>
+        <v>0.5427029</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/output/Notice_of_Garnish2_results.xlsx
+++ b/output/Notice_of_Garnish2_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8391499</v>
+        <v>0.83914983</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -487,112 +487,108 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(name)</t>
+          <t>Garnishment no</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Robert Last</t>
+          <t>154847</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.47776735</v>
+        <v>0.9647485</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>id</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.9755764</v>
+        <v>0.9872984</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(Court seal)</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(and</t>
+          <t>27/10/2023</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4754855</v>
+        <v>0.9416663</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9945776</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IF YOU DO NOT PAY THE TOTAL AMOUNT OF</t>
+          <t>File no</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>300
-$
-LESS</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.33335164</v>
+        <v>0.93937284</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>id</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.3034745</v>
+        <v>0.460233</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Garnishment no</t>
+          <t>Court</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>154847</t>
+          <t>BSH</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9647485</v>
+        <v>0.87488484</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.9872984</v>
+        <v>0.29258332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Office at</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>27/10/2023</t>
+          <t>10:30 am</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.94166636</v>
+        <v>0.8495133</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -600,68 +596,68 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.9945776</v>
+        <v>0.9309047499999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>File no</t>
+          <t>Debtor</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>Robert Last</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.93937284</v>
+        <v>0.8435398</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>person</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.460233</v>
+        <v>0.9755764</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Court</t>
+          <t>Amount enclosed $</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BSH</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8748849</v>
+        <v>0.8315295</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>price</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.29258332</v>
+        <v>0.12702483</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Office at</t>
+          <t>Date of payment</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10:30 am</t>
+          <t>28/102023</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8495135</v>
+        <v>0.81943655</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -669,22 +665,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.9309047499999999</v>
+        <v>0.98067105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Debtor</t>
+          <t>Garnishee</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Robert Last</t>
+          <t>Yassine Walid</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8435397</v>
+        <v>0.7371566000000001</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -692,190 +688,121 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.9755764</v>
+        <v>0.81114095</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Amount enclosed $</t>
+          <t>Local registrar</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>Mohamed B Fakkak</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8315295</v>
+        <v>0.7342183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>person</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.12702483</v>
+        <v>0.9941775</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Date of payment</t>
+          <t>Creditor</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>28/102023</t>
+          <t>Mouad Maaziz</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.81943655</v>
+        <v>0.7210586</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>date_time</t>
+          <t>person</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.98067105</v>
+        <v>0.96703374</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Garnishee</t>
+          <t>telephone no.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Yassine Walid</t>
+          <t>(555) 123-4567</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7371567</v>
+        <v>0.7162764700000001</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.81114095</v>
+        <v>0.9996456500000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Local registrar</t>
+          <t>Address of court office</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mohamed B Fakkak</t>
+          <t>567 Willow Lane, Apt 302, Vancouver, BC V6B 2S2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.73421824</v>
+        <v>0.60121596</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>address</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.9941775</v>
+        <v>0.9952543</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Creditor</t>
+          <t>Creditor's address</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mouad Maaziz</t>
+          <t>789 Country Road 42, Red Deer County, AB T4E0P7</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.7210587000000001</v>
+        <v>0.54270273</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>address</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.96703374</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>telephone no.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>(555) 123-4567</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.71627635</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>phone</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9996456500000001</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Address of court office</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>567 Willow Lane, Apt 302, Vancouver, BC V6B 2S2</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.6012159</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>address</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>0.9952543</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Creditor's address</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>789 Country Road 42, Red Deer County, AB T4E0P7</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5427029</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>address</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
         <v>0.99578106</v>
       </c>
     </row>
